--- a/results/result_2.xlsx
+++ b/results/result_2.xlsx
@@ -11,6 +11,7 @@
     <sheet name="cost" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="availability" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="reputation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="time" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +458,11 @@
           <t>random</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,20 +470,17 @@
           <t>vaas_300</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="B2" t="n">
+        <v>4.200198365476926</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.919418108142558</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.03917627011637</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.6603522072071</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +523,11 @@
           <t>random</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -527,20 +535,17 @@
           <t>vaas_300</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="B2" t="n">
+        <v>256.6644128851423</v>
+      </c>
+      <c r="C2" t="n">
+        <v>73.17276441731113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>636.4126621878152</v>
+      </c>
+      <c r="E2" t="n">
+        <v>343.1454395445836</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +588,11 @@
           <t>random</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -590,20 +600,17 @@
           <t>vaas_300</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1.249511009845906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.152386443058195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.146258708285812</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.558521847786247</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +653,11 @@
           <t>random</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -653,20 +665,82 @@
           <t>vaas_300</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="B2" t="n">
+        <v>576.8777442099072</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321.6647850100459</v>
+      </c>
+      <c r="D2" t="n">
+        <v>861.6243872976778</v>
+      </c>
+      <c r="E2" t="n">
+        <v>437.3130034032856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CPSO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PSO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vaas_300</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.558043322681256</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5915077810674219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.636856589863104</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.495056329443127</v>
       </c>
     </row>
   </sheetData>
